--- a/Datascraping/output_excel_files_new/Indian Institute of Technology Hyderabad_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Indian Institute of Technology Hyderabad_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,22 +525,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>205</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,32 +563,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,22 +606,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PG [3 Year Program(s)]</t>
+          <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -759,52 +759,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>561</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>703</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>468</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>779</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -814,143 +814,143 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>UG [5 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>626</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>870</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>768</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PG [3 Year-Program(s)]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1057,23 +1057,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>114</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>103</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1700000(Seventeen-Lakhs)</t>
+          <t>2100000(Twenty One+Lakh)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1088,12 +1088,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1113,24 +1113,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1625000(Sixteen lakhs-and twenty five-thousand)</t>
+          <t>2953000(Twenty Nine+Lakh Fifty Three+Thousand)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1170,23 +1170,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>155</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>141</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2000000(Twenty-Lakhs)</t>
+          <t>3036000(Thirty Lakh+Thirty Six Thousand)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1220,17 +1220,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
+          <t>No. of students+admitted through+Lateral entry</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1238,15 +1252,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1254,47 +1266,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1500000(Fifteen+          <t>67</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2200000(Twenty Two Lakhs)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1302,47 +1322,55 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1500000(Fifteen+          <t>83</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2400000(Twenty Four Lakhs)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1350,47 +1378,56 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1700000(Seventeen-Lakhs)</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2798000(Twenty+Seven Lakhs Ninety+Eight Thousand)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1422,31 +1459,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No. of students-admitted through-Lateral entry</t>
+          <t>No. of students graduating in minimum+stipulated time</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No. of students-graduating in-minimum stipulated-time</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1454,13 +1477,15 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1468,56 +1493,47 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>136</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1600000(Sixteen+Lakhs)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2376000(Twenty three-lakhs and seventy six-thousand)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1525,56 +1541,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1870000(Eighteen+Lakhs Seventy+Thousand)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2526000(Twenty five-lakhs and twenty six-thousand)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1582,55 +1590,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>122</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2195000(Twenty One+Lakhs Ninety Five+Thousand)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2100000(Twenty one-Lakhs)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1681,7 +1682,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1773,17 +1774,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1804,17 +1805,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1907,25 +1908,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Library ( Books, Journals and e-Resources only)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>35657429 (Three Crore Fifty Six Lakh Fifty Seven Thousand-Four Hundred And Twenty Nine)</t>
+          <t>11658174 (One Crore Sixteen Lakhs Fifty Eight Thousand One+Hundred Seventy Four)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>36056910 (Three Crore Sixty Lakh Fifty Six thousand Nine-Hundred and Ten )</t>
+          <t>11129682 (One Crore Eleven Lakhs Twenty Nine Thousand+Six Hundred Eighty Two)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>40545561 (Three Crore Two Lakh Forty Five Thousand Nine-Hundred Twenty Seven )</t>
+          <t>9417898 (Ninety Four Lakhs Seventeen Thousand Eight+Hundred Ninety Eight)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1941,25 +1942,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>New Equipment and software for Laboratories</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>360785745 (Thirty Six Crore Seven Lakh Eighty Five Thousand-Seven Hundred And Forty Five)</t>
+          <t>41779260 (Four Crore Seventeen Lakh Seventy Nine+Thousand Two Hundred Sixty)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>382919465 (Thirty Eight Crore Twenty Nine Lakh Nineteen-Thousand Four Hundred Sixty Five)</t>
+          <t>55311993 (Five Crore Fifty Three Lakhs Eleven Thousand+Nine Hundred Ninety Three)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>523236444 (Fifty Two Crore Thirty Two Lakh Thirty Six-Thousand Four Hundred Forty Four )</t>
+          <t>56936675 (Five Crore Sixty Nine Lakhs Thirty Six Thousand+Six Hundred and Seventy Five)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1980,19 +1981,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>600000 (Six lakhs)</t>
+          <t>1775260 (Seventeen Lakhs Seventy Five Thousand Two+Hundred Sixty)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>218597 (Two lakh eighteen thousand five hundred ninety-seven)</t>
+          <t>1611121 (Sixteen Lakhs Eleven Thousand One Hundred+Twenty One)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1993879 (Nineteen Lakh Forty One Thousand Three Hundred-Sixty Two )</t>
+          <t>235136 (Two Lakhs Thirty Five Thousand One Hundred Thirty+Six)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2008,22 +2010,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Other expenditure on creation of Capital Assets (For setting up+classrooms, seminar hall, conference hall , library, Lab, Engg+workshops excluding expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>70092 (Seventy thousand ninety two rupees only)</t>
+          <t>33751307 (Three Crore Thirty Seven Lakhs Fifty One+Thousand Three Hundred and Seven)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>16842249 (One Crore Sixty Eight Lakhs Forty Two Thousand+Two Hundred and Forty Nine)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>18303322 (One Crore Eighty Three Lakh Three Thousand+Three Hundred Twenty Two)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2039,26 +2046,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>135612446 (Thirteen Crore Fifty Six Lakh Twelve Thousand-Four Hundred And Forty Six)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>75066897 (Seven Crore Fifty Lakhs Sixty Six Thousand Eight-Hundred Ninety Seven)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>303365777 (Thirty Crore Thirty Three Lakh Sixty Five-Thousand Seven Hundred Seventy Seven)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2072,24 +2075,20 @@
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2103,22 +2102,14 @@
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2132,12 +2123,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>372675703 (Thirty Seven Crore Twenty Six Lakh Seventy Five+Thousand Seven Hundred And Three)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>352589408 (Thirty Five Crore Twenty Five Lakhs Eighty Nine+Thousand Four Hundred Eight)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>350666804 (Thirty Five Crore Six Lakh Sixty Six Thousand+Eight Hundred and Four)</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2151,25 +2157,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1745821591 (One Hundred And Seventy Four Crore Fifty Eight-Lakh Twenty One Thousand Five Hundred And Ninety One)</t>
+          <t>227020797 (Twenty Two Crore Seventy Lakh Twenty+Thousand Seven Hundred And Ninety Seven)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>792195187 (Seventy Nine Crore Twenty one Lakh Ninety Five-Thousand one Eighty Seven)</t>
+          <t>207505804 (Twenty Crore Seventy Five Lakhs Five Thousand+Eight Hundred and Four)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>730127788 (Seventy Three Crore One Lakh Twenty Seven-Thousand Seven Hundred Eighty Eight)</t>
+          <t>132805713 (Thirteen Crore Twenty Eight Lakhs Five Thousand+Seven Hundred and Thirteen)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2185,27 +2193,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>754647920 (Seventy six crore forty six lakh seven thoussad-nine hundred and twenty)</t>
+          <t>3679015 (Thirty Six Lakhs Seventy Nine Thousand and+Fifteen)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>750826090 (Seventy Five Crore Eight lakh twenty six thousand-and Ninety )</t>
+          <t>2236669 (Twenty Two Lakhs Thirty Six Thousand Six Hundred+Sixty Nine)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>774802821 (Eighty Two Crore Fifteen Lakh Fifty Four-Thousand Two Hundred Sixty Two )</t>
+          <t>4023205 (Forty Lakhs Twenty Three Thousand Two Hundred+and Five)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2221,25 +2227,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2433745 (Twenty Four Lakh Thirty Three Thousand Seven-Hundred And Forty Five)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3929974 (Thirty Nine Lakh Twenty Nine thousand nine-hundred seventy four)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22768931 (Two Crore Twenty Seven Lakh Sixty Eight-Thousand Nine Hundred Thirty One )</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2255,22 +2258,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2286,22 +2289,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2317,22 +2320,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>226745000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>196154626</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>119150621</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2348,22 +2351,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>218555338</t>
+          <t>Twenty Two Crore Sixty Seven Lakhs Forty Five Thousand</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>722577352</t>
+          <t>Nineteen Crore Sixty One Lakhs Fifty Four Thousand Six+Hundred Twenty Six</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>520361352</t>
+          <t>Eleven Crore Ninety One Lakh Fifty Thousand Six Hundred+And Twenty One</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2379,25 +2384,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Twenty One Crores Eighty Five Lakhs Fifty Five Thousand-Three Hundred Thirty Eight only</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Seventy Two crores forty four lakhs seventy seven thousand-fifty only</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fifty two crores three lakhs sixty one thousand three hundred-fifty two only</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2413,22 +2415,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2444,22 +2446,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2475,22 +2477,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>6677890</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>3493987</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2207500</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2506,22 +2508,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>245978922</t>
+          <t>Sixty Six Lakhs Seventy Seven Thousand Eight Hundred+Ninety</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>75113417</t>
+          <t>Thirty Four Lakh Ninty Three Thousand Nine Hundred Eighty+Seven</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>52040519</t>
+          <t>Twenty Two Lakh Seven Thousand Five Hundred</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2537,26 +2541,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Twenty Four Crores Fifty Nine Lakhs Seventy Eight Thousand-Nine Hundred Twenty Two only</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Seven Crores fifty one lakhs thirteen thousand four hundred-seventeen only</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Five crores twenty lakhs forty thousan five hundred nineteen</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2570,24 +2564,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2601,25 +2588,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2633,24 +2611,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Total no. of Participants</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2661,162 +2631,6 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>53242560</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>31145000</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>11815000</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Five crore forty two thousand five hundred and sixty</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Three crore eleven lakh firty five thousand</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>One crore eighteen lakh fifteen thousand</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
